--- a/data/trans_bre/P17_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.8159206345754566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.838010023326365</v>
+        <v>4.838010023326361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9747982150576303</v>
@@ -649,7 +649,7 @@
         <v>0.03348710434211226</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4861080942591989</v>
+        <v>0.4861080942591984</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.65792169603733</v>
+        <v>11.13794355827088</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.101399341661007</v>
+        <v>2.736675743502022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.39384040932554</v>
+        <v>-7.206730916711569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.0134025114830736</v>
+        <v>-0.06774561177293013</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4703296724507813</v>
+        <v>0.4846553030715805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09691546410532419</v>
+        <v>0.08554899396986387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.232038758267894</v>
+        <v>-0.2575450041096581</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02752880820897861</v>
+        <v>-0.01069150633450967</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.5741701362949</v>
+        <v>26.23909565972423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.54584999337579</v>
+        <v>18.57208255913355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.013552373220847</v>
+        <v>7.839870801957264</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.514292820023943</v>
+        <v>9.354472313385319</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.746179835761082</v>
+        <v>1.661338640631042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8044394977817881</v>
+        <v>0.7689236829995776</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3926979340385133</v>
+        <v>0.3891032531830755</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.251035887822746</v>
+        <v>1.214204671456141</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.794281343367238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10.15427061325016</v>
+        <v>10.15427061325017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3750285555683879</v>
@@ -749,7 +749,7 @@
         <v>0.06156153823358872</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4581060140469193</v>
+        <v>0.4581060140469196</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.483568220222985</v>
+        <v>5.535289877554014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.639122334538909</v>
+        <v>-1.799056985923863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.171750708830102</v>
+        <v>-4.066360665017097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.826246198635835</v>
+        <v>4.594897102667098</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1491305625793875</v>
+        <v>0.159393482388913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04347514876931262</v>
+        <v>-0.06773462171025443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1282402314249778</v>
+        <v>-0.127340678723616</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1280611776906877</v>
+        <v>0.169313945952364</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.69522174155955</v>
+        <v>17.72106782808379</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.01335254601447</v>
+        <v>10.03019145552158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.853611759430847</v>
+        <v>7.965109977142439</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.23661216090166</v>
+        <v>15.75415487773185</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6404464426908983</v>
+        <v>0.6278359394104086</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4542624331353363</v>
+        <v>0.4277069416682995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2940234691017133</v>
+        <v>0.2999285126732318</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8167312885468042</v>
+        <v>0.8256620295101429</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.50214806283772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.094684624372196</v>
+        <v>8.094684624372203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2014497693213886</v>
@@ -849,7 +849,7 @@
         <v>1.069278923843265</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6294789630967227</v>
+        <v>0.6294789630967235</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.131925764162705</v>
+        <v>-2.808300545388912</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.774386191090509</v>
+        <v>5.113504378269798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.115255911319324</v>
+        <v>5.317376174403146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.531147501282227</v>
+        <v>3.46638926233058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1080443693928262</v>
+        <v>-0.1534149697244751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.235062199141556</v>
+        <v>0.2604532568613659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4102231141738542</v>
+        <v>0.3963907282720694</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2192957170253873</v>
+        <v>0.224075574280506</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.424607258274424</v>
+        <v>9.227994965931314</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.10561847970506</v>
+        <v>17.81910777595784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.83153625138065</v>
+        <v>16.3163357038682</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.64406898501426</v>
+        <v>13.41843279726913</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6751379023505584</v>
+        <v>0.641906072354304</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.180678743935635</v>
+        <v>1.258400634492373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.146312216771503</v>
+        <v>2.226829088258426</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.300585106515775</v>
+        <v>1.331828844859068</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.040487978667018</v>
+        <v>-4.414823062255531</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.594567221123981</v>
+        <v>-2.079633925460463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.019444462570037</v>
+        <v>2.943386918948623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.930154358484286</v>
+        <v>-6.722467403599576</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1427519275558332</v>
+        <v>-0.1299044701056759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0305186757950753</v>
+        <v>-0.04111143849066826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05430497234934949</v>
+        <v>0.06056369555206234</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1878597704049461</v>
+        <v>-0.2158796497576358</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.11814260650676</v>
+        <v>8.884491930107162</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.17033185744971</v>
+        <v>13.61627030602368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.58433837338077</v>
+        <v>17.34948567613003</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.175750285732663</v>
+        <v>8.192845769733708</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2761691694630266</v>
+        <v>0.3234560140521233</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2992455276144992</v>
+        <v>0.3011817976325989</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3779937919812065</v>
+        <v>0.3742982373970057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4401775693832409</v>
+        <v>0.3725806819742644</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.060210557011248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2775919787979975</v>
+        <v>0.2775919787979961</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.213644363141287</v>
@@ -1049,7 +1049,7 @@
         <v>2.521863780339176</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.04428401119909164</v>
+        <v>0.04428401119909142</v>
       </c>
     </row>
     <row r="17">
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.594397952563412</v>
+        <v>-4.297056698389064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.947869419544995</v>
+        <v>-4.981246506663175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4245846694342806</v>
+        <v>-0.4684806793710917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.924372718144768</v>
+        <v>-3.489139139980188</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1336428001245643</v>
+        <v>-0.1817386272654993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2312866477577204</v>
+        <v>-0.2190443034829262</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.4597860367464924</v>
+        <v>-0.4208326731074924</v>
       </c>
     </row>
     <row r="18">
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.79256579493505</v>
+        <v>14.0339860028843</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.45172807640698</v>
+        <v>10.97475100549767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.65791647654201</v>
+        <v>3.582371339762268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.829913125664757</v>
+        <v>3.844621626385305</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7367247625099873</v>
+        <v>0.7084462244725021</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7049752487478369</v>
+        <v>0.7878966150084358</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.9363918627044364</v>
+        <v>0.9348061730620268</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>10.61638982209854</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.363622719330055</v>
+        <v>2.363622719330054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2413009667789586</v>
@@ -1145,7 +1145,7 @@
         <v>3.808377521120092</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8938394009231792</v>
+        <v>0.8938394009231784</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.414502594499853</v>
+        <v>-2.603945065131873</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.912137685316504</v>
+        <v>5.103341916594332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.322951074290903</v>
+        <v>6.390849072333231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.374111060312148</v>
+        <v>-0.2813239036299931</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1106244917515826</v>
+        <v>-0.1176942373925435</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1925123825602551</v>
+        <v>0.2105689275669405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.948671978087012</v>
+        <v>0.9593368604398999</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2165015436300577</v>
+        <v>-0.1839920504806568</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.13561484460216</v>
+        <v>10.85912972712772</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.61939871200228</v>
+        <v>19.92873463275793</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.9006482818336</v>
+        <v>15.75975995722965</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.47312997759183</v>
+        <v>5.400819731742443</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7694386609236737</v>
+        <v>0.7665518278045812</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.109110069801583</v>
+        <v>1.094021904990035</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>10.59508034457259</v>
+        <v>10.08238607857112</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.726785688815301</v>
+        <v>3.264533032808531</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>4.475286030570421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.272534671634896</v>
+        <v>8.27253467163489</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2019483709993891</v>
@@ -1245,7 +1245,7 @@
         <v>0.2426554741840007</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2997628479112389</v>
+        <v>0.2997628479112386</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.108000112653077</v>
+        <v>-1.342025505002108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.184565556634991</v>
+        <v>3.335249421986776</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1254927953219528</v>
+        <v>-0.1600593950280067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.393226031666734</v>
+        <v>3.296167637099524</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.06707928320599757</v>
+        <v>-0.08437976255637974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1419019306532374</v>
+        <v>0.1496001090693451</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007059114198414023</v>
+        <v>-0.008569238136212833</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.07312258203964724</v>
+        <v>0.1069743453927988</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.026912096275119</v>
+        <v>7.158086588371547</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.71786135249798</v>
+        <v>12.81429944208034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.497946275908282</v>
+        <v>8.883804502949486</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.23425786569738</v>
+        <v>13.60690436605783</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5569241749085717</v>
+        <v>0.5709806949512831</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7307572734302106</v>
+        <v>0.7377899565296685</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5879139246219512</v>
+        <v>0.543971783575949</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5191276787448371</v>
+        <v>0.5507230370198291</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>2.706812870982826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.802469652239916</v>
+        <v>1.802469652239915</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3918235728408198</v>
@@ -1345,7 +1345,7 @@
         <v>0.4235695049477917</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.9072892276352944</v>
+        <v>0.9072892276352941</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.423045244558785</v>
+        <v>6.268103010172315</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.594879653377653</v>
+        <v>2.474650582235677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2219104648596714</v>
+        <v>0.1784000676806263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1466653474742879</v>
+        <v>0.1974582768524874</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2075459405225868</v>
+        <v>0.2043133919754055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0813466474315105</v>
+        <v>0.09006662777784123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01259665190979506</v>
+        <v>0.01047777593545289</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02527063196147696</v>
+        <v>0.02393956946831316</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>15.92256677521005</v>
+        <v>15.71185203410591</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.88972222157593</v>
+        <v>12.28602394961145</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.626234238416115</v>
+        <v>5.832029843763383</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.290693707425463</v>
+        <v>3.502893804951476</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6205459988093307</v>
+        <v>0.613832087619525</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5276450510961003</v>
+        <v>0.5607211180016313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.111762093763165</v>
+        <v>1.118368091558779</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.361355414038655</v>
+        <v>2.782384026564611</v>
       </c>
     </row>
     <row r="28">
@@ -1433,7 +1433,7 @@
         <v>4.817720418121918</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5.31944342993167</v>
+        <v>5.319443429931664</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3195481045579387</v>
@@ -1445,7 +1445,7 @@
         <v>0.2652833477245357</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3595483620201977</v>
+        <v>0.3595483620201973</v>
       </c>
     </row>
     <row r="29">
@@ -1456,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.526723917262938</v>
+        <v>5.381880795927187</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.623586214978195</v>
+        <v>5.484738750019261</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.742931503480389</v>
+        <v>2.963478501657956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.324336696679285</v>
+        <v>3.561000091092486</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2261103850734053</v>
+        <v>0.2195100724494042</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2146797903624088</v>
+        <v>0.2051686661903757</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1458478895300017</v>
+        <v>0.1540698142444764</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2060051170723199</v>
+        <v>0.2245173203713413</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.685094990087006</v>
+        <v>9.556684660702535</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.861605400125848</v>
+        <v>10.09016853354688</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.545935835856567</v>
+        <v>6.955172278026993</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.061112207777749</v>
+        <v>7.054609400004964</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4353152470057114</v>
+        <v>0.4277518790582679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4075365743779569</v>
+        <v>0.4162947193541596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3853977320088292</v>
+        <v>0.4102707238305646</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5113152391919674</v>
+        <v>0.5281348866529286</v>
       </c>
     </row>
     <row r="31">
